--- a/Data/Figure6.xlsx
+++ b/Data/Figure6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/Supplementary-Information/SCRIPTS-SI5-SI6/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/SUBMISSION/SUPLEMENTARY-INFORMATION/SCRIPTS/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{1BE31690-F7EE-4940-B0D1-EECC08CCDA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20D84FD-6844-496C-85A7-D585307E9C5B}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{1BE31690-F7EE-4940-B0D1-EECC08CCDA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9D3A12E-0D95-4195-B6C3-068611FD68B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="29250" yWindow="900" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro+Pollen" sheetId="3" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>R-MAT-upr</t>
   </si>
   <si>
-    <t>Aitzbitarte_Va</t>
-  </si>
-  <si>
     <t>Aitzbitarte_IV</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>GRAV:28-26</t>
+  </si>
+  <si>
+    <t>AitzbitarteIII_Va</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,35 +391,26 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,34 +451,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C58FE21-F93D-4B8A-8B4E-8256DB3AFEA1}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:N52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -787,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -799,19 +781,19 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>16</v>
@@ -820,13 +802,13 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -834,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F2" s="4">
         <v>51240.5</v>
@@ -854,22 +836,22 @@
       <c r="H2" s="2">
         <v>59104</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>0.15093934302510092</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>-2.9214461287296096</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>3.2233248147798008</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>-297.13151272664595</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>-581.11803652556102</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>-13.144988927730992</v>
       </c>
     </row>
@@ -878,16 +860,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="4">
         <v>50363.5</v>
@@ -898,22 +880,22 @@
       <c r="H3" s="2">
         <v>54134</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>-0.48104657018989982</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>-4.0022214427281497</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>3.040128302348398</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>-404.30129471361897</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>-729.77028971219602</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>-78.832299715042041</v>
       </c>
     </row>
@@ -922,16 +904,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F4" s="4">
         <v>48921</v>
@@ -942,22 +924,22 @@
       <c r="H4" s="2">
         <v>54768</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>-1.1599895745346007</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>-4.0448158498562305</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>1.7248367007869998</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>-256.64453699850105</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>-523.29460198024208</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>10.005527983239972</v>
       </c>
     </row>
@@ -966,16 +948,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="4">
         <v>48528.5</v>
@@ -986,22 +968,22 @@
       <c r="H5" s="2">
         <v>51060</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>-3.6883643310443706</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>-6.9865774660221902</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>-0.39015119606660065</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>-447.74269031265806</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>-752.60290123382492</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>-142.88247939149096</v>
       </c>
     </row>
@@ -1010,16 +992,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F6" s="4">
         <v>47480</v>
@@ -1030,22 +1012,22 @@
       <c r="H6" s="2">
         <v>58318</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>1.4318421567511006</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>-1.7325485014000304</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>4.5962328149021001</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>-240.44868580070795</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>-532.93942669620105</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>52.042055094785951</v>
       </c>
     </row>
@@ -1054,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="4">
         <v>47179.5</v>
@@ -1074,22 +1056,22 @@
       <c r="H7" s="2">
         <v>48977</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>-4.8507108741301153E-2</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>-3.7212017880846009</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>3.6241875706019986</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>-392.59129220384796</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>-732.06555562229698</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>-53.11702878539802</v>
       </c>
     </row>
@@ -1098,16 +1080,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="4">
         <v>46926.5</v>
@@ -1118,22 +1100,22 @@
       <c r="H8" s="2">
         <v>60950</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>-2.1579412249011103</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>-5.2035420377090604</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>0.88765958790679989</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>-468.321335503559</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>-749.83210153855998</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>-186.81056946855801</v>
       </c>
     </row>
@@ -1142,16 +1124,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="4">
         <v>46487</v>
@@ -1162,22 +1144,22 @@
       <c r="H9" s="2">
         <v>48438</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>-2.535138485946101</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>-5.8489441281342005</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>0.77866715624199934</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>-431.18609337823398</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>-737.48754985945993</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>-124.88463689700802</v>
       </c>
     </row>
@@ -1186,16 +1168,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="4">
         <v>46156.5</v>
@@ -1206,22 +1188,22 @@
       <c r="H10" s="2">
         <v>48518</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>-2.93266808710524</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>-6.0010477578322607</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>0.13571158362179858</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>-274.05539993837397</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>-557.67165981066103</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>9.5608599339129796</v>
       </c>
     </row>
@@ -1230,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="4">
         <v>45629</v>
@@ -1250,22 +1232,22 @@
       <c r="H11" s="2">
         <v>51378</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>-5.4563821094573495</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>-9.5961331226977613</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>-1.3166310962169003</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>-523.64053267479505</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>-906.28571520514606</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>-140.99535014444496</v>
       </c>
     </row>
@@ -1274,16 +1256,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F12" s="4">
         <v>44038.5</v>
@@ -1294,22 +1276,22 @@
       <c r="H12" s="2">
         <v>55189</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>-8.9751914134686501</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>-12.26983479522794</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>-5.6805480317093604</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>-808.896073629483</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>-1113.4263253652971</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>-504.36582189366902</v>
       </c>
     </row>
@@ -1318,16 +1300,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>84</v>
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="4">
         <v>42714</v>
@@ -1338,22 +1320,22 @@
       <c r="H13" s="2">
         <v>43019</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>-0.37258351484550012</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>-3.4246265801882512</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>2.6794595504971994</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>-175.76099814491101</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>-457.86723402561103</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>106.34523773578996</v>
       </c>
     </row>
@@ -1362,16 +1344,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="4">
         <v>41346.5</v>
@@ -1382,22 +1364,22 @@
       <c r="H14" s="2">
         <v>43217</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>-4.4601303682466504</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>-7.5038597256641104</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>-1.4164010108292011</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>-494.48138415675203</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>-775.81916795509198</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>-213.14360035841196</v>
       </c>
     </row>
@@ -1406,16 +1388,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F15" s="4">
         <v>41135.5</v>
@@ -1426,22 +1408,22 @@
       <c r="H15" s="2">
         <v>42298</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>-3.8192796538087208</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>-7.1258173738354511</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>-0.51274193378200117</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>-479.89803341272602</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>-785.52770180980099</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>-174.26836501565197</v>
       </c>
     </row>
@@ -1450,16 +1432,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F16" s="4">
         <v>39704.5</v>
@@ -1470,22 +1452,22 @@
       <c r="H16" s="4">
         <v>40893</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>-7.439730433664451</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>-11.54124997799887</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>-3.3382108893300302</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>-487.09652639665001</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>-866.20790040780503</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>-107.98515238549498</v>
       </c>
     </row>
@@ -1494,16 +1476,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F17" s="4">
         <v>39563</v>
@@ -1514,22 +1496,22 @@
       <c r="H17" s="4">
         <v>45362</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>-3.2224157654630403</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>-6.4224312513912807</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>-2.2400279534799949E-2</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>-269.12331729755203</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>-564.90692983769304</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>26.660295242589996</v>
       </c>
     </row>
@@ -1538,16 +1520,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F18" s="6">
         <v>39543</v>
@@ -1558,22 +1540,22 @@
       <c r="H18" s="3">
         <v>40547</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>-1.5896795029642998</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>-4.8118747382118112</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>1.6325157322831991</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>-248.10696811953301</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>-545.94069773183605</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <v>49.726761492770038</v>
       </c>
     </row>
@@ -1582,16 +1564,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F19" s="4">
         <v>39309</v>
@@ -1602,22 +1584,22 @@
       <c r="H19" s="4">
         <v>40804</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>-4.4389278296995798</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>-7.4557785338142599</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>-1.4220771255849005</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>-505.56262596633997</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>-784.41596392088002</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>-226.70928801180105</v>
       </c>
     </row>
@@ -1626,16 +1608,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="4">
         <v>39309</v>
@@ -1646,22 +1628,22 @@
       <c r="H20" s="2">
         <v>40804</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>-2.2184393941103</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>-5.4459947831066806</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>1.0091159948861002</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>-462.63495237439201</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>-760.964131351422</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>-164.30577339736203</v>
       </c>
     </row>
@@ -1670,16 +1652,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="4">
         <v>38570</v>
@@ -1690,22 +1672,22 @@
       <c r="H21" s="4">
         <v>40091</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>-7.439730433664451</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>-11.54124997799887</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>-3.3382108893300302</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>-487.09652639665001</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>-866.20790040780503</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <v>-107.98515238549498</v>
       </c>
     </row>
@@ -1714,16 +1696,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="4">
         <v>37661.5</v>
@@ -1734,22 +1716,22 @@
       <c r="H22" s="4">
         <v>39928</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>-7.3210543058395903</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>-10.918183846895641</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>-3.7239247647835398</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>-825.19366317162303</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>-1157.6832948959491</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <v>-492.70403144729801</v>
       </c>
     </row>
@@ -1758,16 +1740,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="4">
         <v>35779</v>
@@ -1778,22 +1760,22 @@
       <c r="H23" s="2">
         <v>36376</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>0.24951797581390167</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>-3.7723430201699788</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>4.2713789717978017</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>-270.63401515840098</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>-642.38239567642199</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="10">
         <v>101.11436535962002</v>
       </c>
     </row>
@@ -1802,16 +1784,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F24" s="4">
         <v>35397.5</v>
@@ -1822,22 +1804,22 @@
       <c r="H24" s="2">
         <v>35920</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>-1.6458945846530995</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>-5.3692539218624091</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>2.0774647525562013</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>-329.62654239431504</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>-673.78383800358199</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>14.530753214952028</v>
       </c>
     </row>
@@ -1846,16 +1828,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F25" s="4">
         <v>34989</v>
@@ -1866,22 +1848,22 @@
       <c r="H25" s="2">
         <v>35851</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>-3.7668231068976699</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>-7.5528167050926802</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>1.9170491297300529E-2</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>-786.450618469858</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>-1136.3973198068791</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>-436.50391713283796</v>
       </c>
     </row>
@@ -1890,16 +1872,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F26" s="4">
         <v>34577</v>
@@ -1910,22 +1892,22 @@
       <c r="H26" s="2">
         <v>35500</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>-9.2197540134062201</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>-14.892223815308109</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>-3.5472842115043299</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>-365.64790628250898</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>-889.96524706084938</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>158.66943449583005</v>
       </c>
     </row>
@@ -1934,16 +1916,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F27" s="4">
         <v>34468.5</v>
@@ -1954,22 +1936,22 @@
       <c r="H27" s="2">
         <v>37136</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>-3.7292579382517808</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>-7.5632605858202409</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>0.10474470931669977</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>-606.37975947164705</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>-960.76402997692401</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <v>-251.99548896636998</v>
       </c>
     </row>
@@ -1978,16 +1960,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F28" s="4">
         <v>34208.5</v>
@@ -1998,22 +1980,22 @@
       <c r="H28" s="2">
         <v>36745</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>-7.9001459813072099</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>-11.27115575092202</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>-4.529136211692391</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>-526.24509399711303</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>-837.83403847234604</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>-214.65614952188002</v>
       </c>
     </row>
@@ -2022,16 +2004,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F29" s="4">
         <v>33894.5</v>
@@ -2042,22 +2024,22 @@
       <c r="H29" s="2">
         <v>35325</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>-5.2064373562616701</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>-8.5069464096296805</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>-1.9059283028937006</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>-780.55348114288097</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>-1085.625908235668</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <v>-475.48105405009301</v>
       </c>
     </row>
@@ -2066,16 +2048,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="4">
         <v>33529</v>
@@ -2086,22 +2068,22 @@
       <c r="H30" s="2">
         <v>34454</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>-6.9432831622358089</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>-10.71973271525936</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>-3.1668336092122491</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>-400.79969018394002</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="10">
         <v>-749.86421699040693</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <v>-51.735163377471963</v>
       </c>
     </row>
@@ -2110,16 +2092,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F31" s="4">
         <v>33131.5</v>
@@ -2130,22 +2112,22 @@
       <c r="H31" s="2">
         <v>37224</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>-6.6063345500510904</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>-9.9871501328936905</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>-3.2255189672084903</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>-814.670629731605</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>-1127.1659444644699</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <v>-502.17531499873996</v>
       </c>
     </row>
@@ -2154,16 +2136,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F32" s="4">
         <v>31437.5</v>
@@ -2174,22 +2156,22 @@
       <c r="H32" s="2">
         <v>43620</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>-3.4651633238918311</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>-6.717905198346771</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>-0.212421449436901</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>-470.87719942246599</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="10">
         <v>-771.53441390084902</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>-170.21998494408297</v>
       </c>
     </row>
@@ -2198,16 +2180,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F33" s="4">
         <v>31118.5</v>
@@ -2218,22 +2200,22 @@
       <c r="H33" s="2">
         <v>34110</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>-1.8891705509943009</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>-5.8257178630768403</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>2.0473767610882003</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>-574.01171687971498</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="10">
         <v>-937.87438880213108</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="10">
         <v>-210.149044957299</v>
       </c>
     </row>
@@ -2242,16 +2224,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F34" s="4">
         <v>30923.5</v>
@@ -2262,22 +2244,22 @@
       <c r="H34" s="2">
         <v>32876</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>-3.3821303682466493</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>-6.4258597256641092</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>-0.33840101082919993</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>-338.48138415675203</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="10">
         <v>-619.81916795509198</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>-57.143600358411959</v>
       </c>
     </row>
@@ -2286,16 +2268,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F35" s="6">
         <v>29631.5</v>
@@ -2306,22 +2288,22 @@
       <c r="H35" s="3">
         <v>29980</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>-0.4455849435371011</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>-5.6339622118870807</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>4.7427923248127986</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>-467.11483198298799</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="10">
         <v>-946.68656480806794</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="10">
         <v>12.456900842089908</v>
       </c>
     </row>
@@ -2330,16 +2312,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F36" s="4">
         <v>29627</v>
@@ -2350,22 +2332,22 @@
       <c r="H36" s="2">
         <v>31166</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>-0.40956536486169881</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>-4.6485547427549196</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>3.8294240130313995</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>-309.93551264674204</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="10">
         <v>-701.75348891157603</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="10">
         <v>81.882463618090014</v>
       </c>
     </row>
@@ -2374,16 +2356,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F37" s="4">
         <v>28690</v>
@@ -2394,22 +2376,22 @@
       <c r="H37" s="2">
         <v>34152</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>-0.30973536486169984</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>-4.5487247427549207</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>3.9292540130313984</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>-452.93551264674204</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <v>-844.75348891157603</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <v>-61.117536381909986</v>
       </c>
     </row>
@@ -2418,16 +2400,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F38" s="4">
         <v>28202</v>
@@ -2438,22 +2420,22 @@
       <c r="H38" s="2">
         <v>28972</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>-9.2197540134062201</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>-14.892223815308109</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>-3.5472842115043299</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>-365.64790628250898</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="10">
         <v>-889.96524706084938</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="10">
         <v>158.66943449583005</v>
       </c>
     </row>
@@ -2462,16 +2444,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="4">
         <v>27306</v>
@@ -2482,42 +2464,42 @@
       <c r="H39" s="2">
         <v>30639</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>-7.7001745500510905</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>-11.080990132893691</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>-4.3193589672084904</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>-663.670629731605</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="10">
         <v>-976.16594446446993</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="10">
         <v>-351.17531499873996</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="11">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="10">
         <v>52730.5</v>
       </c>
       <c r="G40" s="1">
@@ -2526,42 +2508,42 @@
       <c r="H40" s="1">
         <v>59324</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>-9.7791999999999994</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>-13.789199999999999</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>-5.7691999999999997</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>-539.58999999999992</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="10">
         <v>-822.08999999999992</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="10">
         <v>-257.08999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="11">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="10">
         <v>47366.5</v>
       </c>
       <c r="G41" s="1">
@@ -2570,42 +2552,42 @@
       <c r="H41" s="1">
         <v>49746</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>-9.854000000000001</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>-13.864000000000001</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>-5.8440000000000012</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>-566.41</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="10">
         <v>-848.91</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="10">
         <v>-283.90999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="11">
+        <v>63</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="10">
         <v>46710</v>
       </c>
       <c r="G42" s="1">
@@ -2614,42 +2596,42 @@
       <c r="H42" s="1">
         <v>54154</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>2.4700000000000006</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>-1.5399999999999991</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>6.48</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>-600.96</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="10">
         <v>-883.46</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="10">
         <v>-318.46000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="11">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="10">
         <v>44699</v>
       </c>
       <c r="G43" s="1">
@@ -2658,42 +2640,42 @@
       <c r="H43" s="1">
         <v>48276</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>-3.343</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>-7.3529999999999998</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>0.66699999999999982</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>-710.47</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="10">
         <v>-992.97</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="10">
         <v>-427.97</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="11">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="10">
         <v>41135.5</v>
       </c>
       <c r="G44" s="1">
@@ -2702,86 +2684,86 @@
       <c r="H44" s="1">
         <v>42298</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>-11.638999999999999</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>-15.648999999999999</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <v>-7.6289999999999996</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>-677.62</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="10">
         <v>-960.12</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="10">
         <v>-395.12</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="1">
+        <v>43780</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44664</v>
+      </c>
+      <c r="H45" s="1">
+        <v>42892</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="J45" s="14">
+        <v>-2.8599999999999994</v>
+      </c>
+      <c r="K45" s="14">
+        <v>5.16</v>
+      </c>
+      <c r="L45" s="15">
+        <v>-546.58999999999992</v>
+      </c>
+      <c r="M45" s="15">
+        <v>-829.08999999999992</v>
+      </c>
+      <c r="N45" s="15">
+        <v>-264.08999999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="12">
-        <v>43780</v>
-      </c>
-      <c r="G45" s="12">
-        <v>44664</v>
-      </c>
-      <c r="H45" s="12">
-        <v>42892</v>
-      </c>
-      <c r="I45" s="17">
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="J45" s="17">
-        <v>-2.8599999999999994</v>
-      </c>
-      <c r="K45" s="17">
-        <v>5.16</v>
-      </c>
-      <c r="L45" s="18">
-        <v>-546.58999999999992</v>
-      </c>
-      <c r="M45" s="18">
-        <v>-829.08999999999992</v>
-      </c>
-      <c r="N45" s="18">
-        <v>-264.08999999999992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="11">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="10">
         <v>39950.5</v>
       </c>
       <c r="G46" s="1">
@@ -2790,42 +2772,42 @@
       <c r="H46" s="1">
         <v>40893</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>-10.544</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>-14.553999999999998</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>-6.5339999999999998</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>-687.94</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="10">
         <v>-970.44</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <v>-405.44000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>75</v>
+      <c r="A47" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="11">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="10">
         <v>38570</v>
       </c>
       <c r="G47" s="1">
@@ -2834,42 +2816,42 @@
       <c r="H47" s="1">
         <v>40091</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>-4.516</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>-8.5259999999999998</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>-0.50600000000000023</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>-689.96</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="10">
         <v>-972.46</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="10">
         <v>-407.46000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>76</v>
+      <c r="A48" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="11">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="10">
         <v>33894.5</v>
       </c>
       <c r="G48" s="1">
@@ -2878,42 +2860,42 @@
       <c r="H48" s="1">
         <v>35325</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>-4.6760000000000002</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>-8.6859999999999999</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <v>-0.66600000000000037</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>-1056.82</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="10">
         <v>-1339.32</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="10">
         <v>-774.31999999999994</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>77</v>
+      <c r="A49" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="11">
+        <v>60</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="10">
         <v>34989</v>
       </c>
       <c r="G49" s="1">
@@ -2922,42 +2904,42 @@
       <c r="H49" s="1">
         <v>35851</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>-5.87</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>-9.879999999999999</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>-1.8600000000000012</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <v>-1029.67</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="10">
         <v>-1312.17</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="10">
         <v>-747.17000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="11">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="10">
         <v>35689.5</v>
       </c>
       <c r="G50" s="1">
@@ -2966,42 +2948,42 @@
       <c r="H50" s="1">
         <v>36125</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>-3.01</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>-7.02</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>1</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <v>-1028.8899999999999</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="10">
         <v>-1311.3899999999999</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="10">
         <v>-746.39</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>72</v>
+      <c r="A51" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="11">
+        <v>61</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="10">
         <v>37661.5</v>
       </c>
       <c r="G51" s="1">
@@ -3010,42 +2992,42 @@
       <c r="H51" s="1">
         <v>39928</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>-3.0399999999999991</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>-7.0499999999999989</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>0.97000000000000064</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <v>-890.48</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="10">
         <v>-1172.98</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="10">
         <v>-607.98</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>83</v>
+      <c r="A52" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="11">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="10">
         <v>33131.5</v>
       </c>
       <c r="G52" s="1">
@@ -3054,22 +3036,22 @@
       <c r="H52" s="1">
         <v>37224</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <v>-4.26</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>-8.27</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>-0.25</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <v>-656.05</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="10">
         <v>-938.55</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="10">
         <v>-373.54999999999995</v>
       </c>
     </row>
